--- a/src/main/resources/Addrouteadmin.xlsx
+++ b/src/main/resources/Addrouteadmin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Firstname</t>
   </si>
@@ -72,10 +72,13 @@
     <t>Usercode - AK 87</t>
   </si>
   <si>
-    <t>Dilip</t>
-  </si>
-  <si>
-    <t>Usercode - DK40</t>
+    <t>Ravindra</t>
+  </si>
+  <si>
+    <t>Jadeja</t>
+  </si>
+  <si>
+    <t>Usercode - RD53</t>
   </si>
 </sst>
 </file>
@@ -425,7 +428,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.36328125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.08984375" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" style="1" customWidth="1"/>
@@ -475,10 +478,10 @@
         <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>

--- a/src/main/resources/Addrouteadmin.xlsx
+++ b/src/main/resources/Addrouteadmin.xlsx
@@ -72,13 +72,13 @@
     <t>Usercode - AK 87</t>
   </si>
   <si>
-    <t>Ravindra</t>
-  </si>
-  <si>
-    <t>Jadeja</t>
-  </si>
-  <si>
-    <t>Usercode - RD53</t>
+    <t>Burkhan</t>
+  </si>
+  <si>
+    <t>Mohd</t>
+  </si>
+  <si>
+    <t>Usercode - SMB54</t>
   </si>
 </sst>
 </file>

--- a/src/main/resources/Addrouteadmin.xlsx
+++ b/src/main/resources/Addrouteadmin.xlsx
@@ -72,13 +72,13 @@
     <t>Usercode - AK 87</t>
   </si>
   <si>
-    <t>Burkhan</t>
-  </si>
-  <si>
-    <t>Mohd</t>
-  </si>
-  <si>
-    <t>Usercode - SMB54</t>
+    <t>Abdul</t>
+  </si>
+  <si>
+    <t>Razzak</t>
+  </si>
+  <si>
+    <t>Usercode - AR57</t>
   </si>
 </sst>
 </file>
@@ -475,10 +475,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>20</v>
